--- a/StructureDefinition-ext-R5-AuditEvent.agent.xlsx
+++ b/StructureDefinition-ext-R5-AuditEvent.agent.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -490,6 +490,7 @@
   </si>
   <si>
     <t>This field ties an audit event to a specific resource or identifier. Element `AuditEvent.agent.who` is part of an existing definition because parent element `AuditEvent.agent` requires a component extension (e.g., if this element is used as a content reference).
+Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `AuditEvent.agent.who` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
 Element `AuditEvent.agent.who` is mapped to FHIR R4 element `AuditEvent.agent.who`.</t>
   </si>
   <si>

--- a/StructureDefinition-ext-R5-AuditEvent.agent.xlsx
+++ b/StructureDefinition-ext-R5-AuditEvent.agent.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -100,7 +100,8 @@
 *  R4B: `AuditEvent.agent` 1..* `BackboneElement`
 *  R4: `AuditEvent.agent` 1..* `BackboneElement`
 Following are the generation technical comments:
-Element `AuditEvent.agent` is mapped to FHIR R4 element `AuditEvent.agent`.</t>
+Element `AuditEvent.agent` has is mapped to FHIR R4 element `AuditEvent.agent`, but has no comparisons.
+Note available implied context: `AuditEvent.entity.agent` because `AuditEvent.entity.agent` is defined as a content reference to `AuditEvent.agent`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -142,7 +143,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Extension.extension</t>
+    <t>element:AuditEvent.agent</t>
   </si>
   <si>
     <t>ID</t>
@@ -348,8 +349,8 @@
     <t>For example: assembler, author, prescriber, signer, investigator, etc.</t>
   </si>
   <si>
-    <t>Functional roles reflect functional aspects of relationships between entities. Functional roles are bound to the realization/performance of acts, where actions might be concatenated to an activity or even to a process. This element will hold the functional role that the agent played in the activity that is the focus of this Provenance. Where an agent played multiple functional roles, they will be listed as multiple .agent elements representing each functional participation. See ISO 21298:2018 - Health Informatics - Functional and structural roles, and ISO 22600-2:2014 - Health Informatics - Privilege Management and Access Control - Part 2: formal models. Element `AuditEvent.agent.type` is part of an existing definition because parent element `AuditEvent.agent` requires a component extension (e.g., if this element is used as a content reference).
-Element `AuditEvent.agent.type` is mapped to FHIR R4 element `AuditEvent.agent.type`.</t>
+    <t>Functional roles reflect functional aspects of relationships between entities. Functional roles are bound to the realization/performance of acts, where actions might be concatenated to an activity or even to a process. This element will hold the functional role that the agent played in the activity that is the focus of this Provenance. Where an agent played multiple functional roles, they will be listed as multiple .agent elements representing each functional participation. See ISO 21298:2018 - Health Informatics - Functional and structural roles, and ISO 22600-2:2014 - Health Informatics - Privilege Management and Access Control - Part 2: formal models. Element `AuditEvent.agent.type` is part of an existing definition because parent element `AuditEvent.agent` requires a cross-version extension.
+Element `AuditEvent.agent.type` has is mapped to FHIR R4 element `AuditEvent.agent.type`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:type.id</t>
@@ -446,8 +447,8 @@
     <t>For example: Chief-of-Radiology, Nurse, Physician, Medical-Student, etc.</t>
   </si>
   <si>
-    <t>Structural roles reflect the structural aspects of relationships between entities. Structural roles describe prerequisites, feasibilities, or competences for acts. Functional roles reflect functional aspects of relationships between entities. Functional roles are bound to the realization/performance of acts, where actions might be concatenated to an activity or even to a process. See ISO 21298:2018 - Health Informatics - Functional and structural roles, and ISO 22600-2:2014 - Health Informatics - Privilege Management and Access Control - Part 2: formal models.. Element `AuditEvent.agent.role` is part of an existing definition because parent element `AuditEvent.agent` requires a component extension (e.g., if this element is used as a content reference).
-Element `AuditEvent.agent.role` is mapped to FHIR R4 element `AuditEvent.agent.role`.</t>
+    <t>Structural roles reflect the structural aspects of relationships between entities. Structural roles describe prerequisites, feasibilities, or competences for acts. Functional roles reflect functional aspects of relationships between entities. Functional roles are bound to the realization/performance of acts, where actions might be concatenated to an activity or even to a process. See ISO 21298:2018 - Health Informatics - Functional and structural roles, and ISO 22600-2:2014 - Health Informatics - Privilege Management and Access Control - Part 2: formal models.. Element `AuditEvent.agent.role` is part of an existing definition because parent element `AuditEvent.agent` requires a cross-version extension.
+Element `AuditEvent.agent.role` has is mapped to FHIR R4 element `AuditEvent.agent.role`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:role.id</t>
@@ -489,9 +490,9 @@
     <t>Where a User ID is available it will go into who.identifier. Where a name of the user (human readable) it will go into who.display.</t>
   </si>
   <si>
-    <t>This field ties an audit event to a specific resource or identifier. Element `AuditEvent.agent.who` is part of an existing definition because parent element `AuditEvent.agent` requires a component extension (e.g., if this element is used as a content reference).
+    <t>This field ties an audit event to a specific resource or identifier. Element `AuditEvent.agent.who` is part of an existing definition because parent element `AuditEvent.agent` requires a cross-version extension.
 Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `AuditEvent.agent.who` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `AuditEvent.agent.who` is mapped to FHIR R4 element `AuditEvent.agent.who`.</t>
+Element `AuditEvent.agent.who` has is mapped to FHIR R4 element `AuditEvent.agent.who`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:who.id</t>
@@ -528,8 +529,8 @@
     <t>There can only be one initiator. If the initiator is not clear, then do not choose any one agent as the initiator.</t>
   </si>
   <si>
-    <t>This value is used to distinguish between requestor-users and recipient-users. For example, one person may initiate a report-output to be sent to another user. Element `AuditEvent.agent.requestor` is part of an existing definition because parent element `AuditEvent.agent` requires a component extension (e.g., if this element is used as a content reference).
-Element `AuditEvent.agent.requestor` is mapped to FHIR R4 element `AuditEvent.agent.requestor`.</t>
+    <t>This value is used to distinguish between requestor-users and recipient-users. For example, one person may initiate a report-output to be sent to another user. Element `AuditEvent.agent.requestor` is part of an existing definition because parent element `AuditEvent.agent` requires a cross-version extension.
+Element `AuditEvent.agent.requestor` has is mapped to FHIR R4 element `AuditEvent.agent.requestor`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:requestor.id</t>
@@ -563,8 +564,8 @@
     <t>Where the agent location is known, the agent location when the event occurred.</t>
   </si>
   <si>
-    <t>Element `AuditEvent.agent.location` is part of an existing definition because parent element `AuditEvent.agent` requires a component extension (e.g., if this element is used as a content reference).
-Element `AuditEvent.agent.location` is mapped to FHIR R4 element `AuditEvent.agent.location`.</t>
+    <t>Element `AuditEvent.agent.location` is part of an existing definition because parent element `AuditEvent.agent` requires a cross-version extension.
+Element `AuditEvent.agent.location` has is mapped to FHIR R4 element `AuditEvent.agent.location`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:location.id</t>
@@ -601,8 +602,8 @@
     <t>For example: Where an OAuth token authorizes, the unique identifier from the OAuth token is placed into the policy element Where a policy engine (e.g. XACML) holds policy logic, the unique policy identifier is placed into the policy element.</t>
   </si>
   <si>
-    <t>This value is used retrospectively to determine the authorization policies. Element `AuditEvent.agent.policy` is part of an existing definition because parent element `AuditEvent.agent` requires a component extension (e.g., if this element is used as a content reference).
-Element `AuditEvent.agent.policy` is mapped to FHIR R4 element `AuditEvent.agent.policy`.</t>
+    <t>This value is used retrospectively to determine the authorization policies. Element `AuditEvent.agent.policy` is part of an existing definition because parent element `AuditEvent.agent` requires a cross-version extension.
+Element `AuditEvent.agent.policy` has is mapped to FHIR R4 element `AuditEvent.agent.policy`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:policy.id</t>
@@ -635,8 +636,8 @@
     <t>When remote network endpoint is known, another agent representing the remote agent would indicate the remote network endpoint used. Convention is to indicate data flowing from Source to Destination. The convention for Search, given data flows both ways (query parameters vs results), is to have the Source as the initiator of the Search Transaction, and the Destination the responder to the Search transaction.</t>
   </si>
   <si>
-    <t>When a network protocol is used the endpoint is associated with the agent most directly using the endpoint. This is usually the software agent that has implemented the application level protocol.  Preference is to define network in terms of a Reference(Endpoint), or URI; use string only when address or hostname is all that is known. When encoding using string it is best to encode using the formal canonical host name, but if you can't, then you can encode numeric in Literal address form using square brackets '[]' as a v4 string (in dotted notation), or v6 string (in colon notation). Element `AuditEvent.agent.network[x]` is part of an existing definition because parent element `AuditEvent.agent` requires a component extension (e.g., if this element is used as a content reference).
-Element `AuditEvent.agent.network[x]` is mapped to FHIR R4 element `AuditEvent.agent.network`.</t>
+    <t>When a network protocol is used the endpoint is associated with the agent most directly using the endpoint. This is usually the software agent that has implemented the application level protocol.  Preference is to define network in terms of a Reference(Endpoint), or URI; use string only when address or hostname is all that is known. When encoding using string it is best to encode using the formal canonical host name, but if you can't, then you can encode numeric in Literal address form using square brackets '[]' as a v4 string (in dotted notation), or v6 string (in colon notation). Element `AuditEvent.agent.network[x]` is part of an existing definition because parent element `AuditEvent.agent` requires a cross-version extension.
+Element `AuditEvent.agent.network[x]` has is mapped to FHIR R4 element `AuditEvent.agent.network`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:network.id</t>
@@ -673,8 +674,8 @@
     <t>Use AuditEvent.agent.authorization when you know that is specific to the agent, otherwise use AuditEvent.authorization. For example, during a machine-to-machine transfer it might not be obvious to the audit system who caused the event, but it does know why.</t>
   </si>
   <si>
-    <t>Record of any relevant security context, not restricted to purposeOfUse valueSet. May include security compartments, refrain, obligation, or other security tags. Element `AuditEvent.agent.authorization` is part of an existing definition because parent element `AuditEvent.agent` requires a component extension (e.g., if this element is used as a content reference).
-Element `AuditEvent.agent.authorization` is mapped to FHIR R4 element `AuditEvent.agent.purposeOfUse`.</t>
+    <t>Record of any relevant security context, not restricted to purposeOfUse valueSet. May include security compartments, refrain, obligation, or other security tags. Element `AuditEvent.agent.authorization` is part of an existing definition because parent element `AuditEvent.agent` requires a cross-version extension.
+Element `AuditEvent.agent.authorization` has is mapped to FHIR R4 element `AuditEvent.agent.purposeOfUse`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:authorization.id</t>

--- a/StructureDefinition-ext-R5-AuditEvent.agent.xlsx
+++ b/StructureDefinition-ext-R5-AuditEvent.agent.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="211">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -128,7 +128,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -416,15 +416,6 @@
 </t>
   </si>
   <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>The Participation type of the agent to the event.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-participation-role-type-for-R4</t>
-  </si>
-  <si>
     <t>Extension.value[x]</t>
   </si>
   <si>
@@ -464,15 +455,6 @@
   </si>
   <si>
     <t>Extension.extension:role.value[x]</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>What security role enabled the agent to participate in the event.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-security-role-type-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:who</t>
@@ -510,7 +492,7 @@
     <t>Extension.extension:who.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-CareTeam|0.0.1-snapshot-3|CareTeam|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-CareTeam|CareTeam)
 </t>
   </si>
   <si>
@@ -583,7 +565,7 @@
     <t>Extension.extension:location.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Location|0.0.1-snapshot-3|Location|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Location|Location)
 </t>
   </si>
   <si>
@@ -655,7 +637,7 @@
     <t>Extension.extension:network.value[x]</t>
   </si>
   <si>
-    <t>Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Endpoint|0.0.1-snapshot-3|Endpoint|4.0.1)
+    <t>Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Endpoint|Endpoint)
 uristring</t>
   </si>
   <si>
@@ -691,12 +673,6 @@
   </si>
   <si>
     <t>Extension.extension:authorization.value[x]</t>
-  </si>
-  <si>
-    <t>The reason the activity took place.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-v3-PurposeOfUse-for-R4</t>
   </si>
   <si>
     <t>base64Binary
@@ -1056,8 +1032,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="52.58984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="61.59375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -1979,43 +1955,43 @@
         <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF9" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="Y9" t="s" s="2">
+      <c r="AG9" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="Z9" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AA9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AG9" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>122</v>
@@ -2023,13 +1999,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -2054,16 +2030,16 @@
         <v>94</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="O10" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -2132,7 +2108,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>107</v>
@@ -2235,7 +2211,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>109</v>
@@ -2340,7 +2316,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>115</v>
@@ -2383,7 +2359,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2445,7 +2421,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>124</v>
@@ -2474,13 +2450,13 @@
         <v>125</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2506,13 +2482,13 @@
         <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>77</v>
@@ -2530,7 +2506,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>84</v>
@@ -2542,7 +2518,7 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>122</v>
@@ -2550,13 +2526,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2581,16 +2557,16 @@
         <v>94</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2659,7 +2635,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>107</v>
@@ -2762,7 +2738,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>109</v>
@@ -2867,7 +2843,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>115</v>
@@ -2910,7 +2886,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2972,7 +2948,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>124</v>
@@ -2998,16 +2974,16 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3057,7 +3033,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>84</v>
@@ -3069,7 +3045,7 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>122</v>
@@ -3077,13 +3053,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -3108,16 +3084,16 @@
         <v>94</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3186,7 +3162,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>107</v>
@@ -3289,7 +3265,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>109</v>
@@ -3394,7 +3370,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>115</v>
@@ -3437,7 +3413,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3499,7 +3475,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>124</v>
@@ -3525,16 +3501,16 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -3584,7 +3560,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>84</v>
@@ -3596,7 +3572,7 @@
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>122</v>
@@ -3604,13 +3580,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -3635,14 +3611,14 @@
         <v>94</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -3711,7 +3687,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>107</v>
@@ -3814,7 +3790,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>109</v>
@@ -3919,7 +3895,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>115</v>
@@ -3962,7 +3938,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -4024,7 +4000,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>124</v>
@@ -4050,13 +4026,13 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4107,7 +4083,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>84</v>
@@ -4119,7 +4095,7 @@
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>122</v>
@@ -4127,13 +4103,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -4158,16 +4134,16 @@
         <v>94</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4236,7 +4212,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>107</v>
@@ -4339,7 +4315,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>109</v>
@@ -4444,7 +4420,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>115</v>
@@ -4487,7 +4463,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>77</v>
@@ -4549,7 +4525,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>124</v>
@@ -4578,13 +4554,13 @@
         <v>116</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -4634,7 +4610,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>84</v>
@@ -4646,7 +4622,7 @@
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>122</v>
@@ -4654,13 +4630,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -4685,16 +4661,16 @@
         <v>94</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -4763,7 +4739,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>107</v>
@@ -4866,7 +4842,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>109</v>
@@ -4971,7 +4947,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>115</v>
@@ -5014,7 +4990,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -5076,7 +5052,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>124</v>
@@ -5102,16 +5078,16 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -5161,7 +5137,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>84</v>
@@ -5173,7 +5149,7 @@
         <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>122</v>
@@ -5181,13 +5157,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>77</v>
@@ -5212,16 +5188,16 @@
         <v>94</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -5290,7 +5266,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>107</v>
@@ -5393,7 +5369,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>109</v>
@@ -5498,7 +5474,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>115</v>
@@ -5541,7 +5517,7 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>77</v>
@@ -5603,7 +5579,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>124</v>
@@ -5632,13 +5608,13 @@
         <v>125</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -5664,13 +5640,13 @@
         <v>77</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>214</v>
+        <v>77</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>215</v>
+        <v>77</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>77</v>
@@ -5688,7 +5664,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>84</v>
@@ -5700,7 +5676,7 @@
         <v>77</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>122</v>
@@ -5813,10 +5789,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -5839,13 +5815,13 @@
         <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -5896,7 +5872,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>84</v>
@@ -5908,7 +5884,7 @@
         <v>77</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>122</v>

--- a/StructureDefinition-ext-R5-AuditEvent.agent.xlsx
+++ b/StructureDefinition-ext-R5-AuditEvent.agent.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="219">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -100,7 +100,7 @@
 *  R4B: `AuditEvent.agent` 1..* `BackboneElement`
 *  R4: `AuditEvent.agent` 1..* `BackboneElement`
 Following are the generation technical comments:
-Element `AuditEvent.agent` has is mapped to FHIR R4 element `AuditEvent.agent`, but has no comparisons.
+Element `AuditEvent.agent` is mapped to FHIR R4 element `AuditEvent.agent` as `Equivalent`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.
 Note available implied context: `AuditEvent.entity.agent` because `AuditEvent.entity.agent` is defined as a content reference to `AuditEvent.agent`.</t>
   </si>
   <si>
@@ -128,7 +128,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -349,8 +349,8 @@
     <t>For example: assembler, author, prescriber, signer, investigator, etc.</t>
   </si>
   <si>
-    <t>Functional roles reflect functional aspects of relationships between entities. Functional roles are bound to the realization/performance of acts, where actions might be concatenated to an activity or even to a process. This element will hold the functional role that the agent played in the activity that is the focus of this Provenance. Where an agent played multiple functional roles, they will be listed as multiple .agent elements representing each functional participation. See ISO 21298:2018 - Health Informatics - Functional and structural roles, and ISO 22600-2:2014 - Health Informatics - Privilege Management and Access Control - Part 2: formal models. Element `AuditEvent.agent.type` is part of an existing definition because parent element `AuditEvent.agent` requires a cross-version extension.
-Element `AuditEvent.agent.type` has is mapped to FHIR R4 element `AuditEvent.agent.type`, but has no comparisons.</t>
+    <t>Functional roles reflect functional aspects of relationships between entities. Functional roles are bound to the realization/performance of acts, where actions might be concatenated to an activity or even to a process. This element will hold the functional role that the agent played in the activity that is the focus of this Provenance. Where an agent played multiple functional roles, they will be listed as multiple .agent elements representing each functional participation. See ISO 21298:2018 - Health Informatics - Functional and structural roles, and ISO 22600-2:2014 - Health Informatics - Privilege Management and Access Control - Part 2: formal models. Element `AuditEvent.agent.type` is mapped to FHIR R4 element `AuditEvent.agent.type` as `Equivalent`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.
+Note available implied context: `AuditEvent.entity.agent.type` because `AuditEvent.entity.agent` is defined via a content reference to `AuditEvent.agent`.</t>
   </si>
   <si>
     <t>Extension.extension:type.id</t>
@@ -416,6 +416,15 @@
 </t>
   </si>
   <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>The Participation type of the agent to the event.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/participation-role-type|4.0.1</t>
+  </si>
+  <si>
     <t>Extension.value[x]</t>
   </si>
   <si>
@@ -438,8 +447,8 @@
     <t>For example: Chief-of-Radiology, Nurse, Physician, Medical-Student, etc.</t>
   </si>
   <si>
-    <t>Structural roles reflect the structural aspects of relationships between entities. Structural roles describe prerequisites, feasibilities, or competences for acts. Functional roles reflect functional aspects of relationships between entities. Functional roles are bound to the realization/performance of acts, where actions might be concatenated to an activity or even to a process. See ISO 21298:2018 - Health Informatics - Functional and structural roles, and ISO 22600-2:2014 - Health Informatics - Privilege Management and Access Control - Part 2: formal models.. Element `AuditEvent.agent.role` is part of an existing definition because parent element `AuditEvent.agent` requires a cross-version extension.
-Element `AuditEvent.agent.role` has is mapped to FHIR R4 element `AuditEvent.agent.role`, but has no comparisons.</t>
+    <t>Structural roles reflect the structural aspects of relationships between entities. Structural roles describe prerequisites, feasibilities, or competences for acts. Functional roles reflect functional aspects of relationships between entities. Functional roles are bound to the realization/performance of acts, where actions might be concatenated to an activity or even to a process. See ISO 21298:2018 - Health Informatics - Functional and structural roles, and ISO 22600-2:2014 - Health Informatics - Privilege Management and Access Control - Part 2: formal models.. Element `AuditEvent.agent.role` is mapped to FHIR R4 element `AuditEvent.agent.role` as `Equivalent`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.
+Note available implied context: `AuditEvent.entity.agent.role` because `AuditEvent.entity.agent` is defined via a content reference to `AuditEvent.agent`.</t>
   </si>
   <si>
     <t>Extension.extension:role.id</t>
@@ -457,6 +466,15 @@
     <t>Extension.extension:role.value[x]</t>
   </si>
   <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>What security role enabled the agent to participate in the event.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/security-role-type|4.0.1</t>
+  </si>
+  <si>
     <t>Extension.extension:who</t>
   </si>
   <si>
@@ -472,9 +490,9 @@
     <t>Where a User ID is available it will go into who.identifier. Where a name of the user (human readable) it will go into who.display.</t>
   </si>
   <si>
-    <t>This field ties an audit event to a specific resource or identifier. Element `AuditEvent.agent.who` is part of an existing definition because parent element `AuditEvent.agent` requires a cross-version extension.
-Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `AuditEvent.agent.who` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `AuditEvent.agent.who` has is mapped to FHIR R4 element `AuditEvent.agent.who`, but has no comparisons.</t>
+    <t>This field ties an audit event to a specific resource or identifier. Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `AuditEvent.agent.who` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `AuditEvent.agent.who` is mapped to FHIR R4 element `AuditEvent.agent.who` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.
+Note available implied context: `AuditEvent.entity.agent.who` because `AuditEvent.entity.agent` is defined via a content reference to `AuditEvent.agent`.</t>
   </si>
   <si>
     <t>Extension.extension:who.id</t>
@@ -492,7 +510,7 @@
     <t>Extension.extension:who.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-CareTeam|CareTeam)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-CareTeam|0.0.1-snapshot-3|CareTeam|4.0.1)
 </t>
   </si>
   <si>
@@ -511,8 +529,8 @@
     <t>There can only be one initiator. If the initiator is not clear, then do not choose any one agent as the initiator.</t>
   </si>
   <si>
-    <t>This value is used to distinguish between requestor-users and recipient-users. For example, one person may initiate a report-output to be sent to another user. Element `AuditEvent.agent.requestor` is part of an existing definition because parent element `AuditEvent.agent` requires a cross-version extension.
-Element `AuditEvent.agent.requestor` has is mapped to FHIR R4 element `AuditEvent.agent.requestor`, but has no comparisons.</t>
+    <t>This value is used to distinguish between requestor-users and recipient-users. For example, one person may initiate a report-output to be sent to another user. Element `AuditEvent.agent.requestor` is mapped to FHIR R4 element `AuditEvent.agent.requestor` as `Equivalent`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.
+Note available implied context: `AuditEvent.entity.agent.requestor` because `AuditEvent.entity.agent` is defined via a content reference to `AuditEvent.agent`.</t>
   </si>
   <si>
     <t>Extension.extension:requestor.id</t>
@@ -546,8 +564,8 @@
     <t>Where the agent location is known, the agent location when the event occurred.</t>
   </si>
   <si>
-    <t>Element `AuditEvent.agent.location` is part of an existing definition because parent element `AuditEvent.agent` requires a cross-version extension.
-Element `AuditEvent.agent.location` has is mapped to FHIR R4 element `AuditEvent.agent.location`, but has no comparisons.</t>
+    <t>Element `AuditEvent.agent.location` is mapped to FHIR R4 element `AuditEvent.agent.location` as `Equivalent`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.
+Note available implied context: `AuditEvent.entity.agent.location` because `AuditEvent.entity.agent` is defined via a content reference to `AuditEvent.agent`.</t>
   </si>
   <si>
     <t>Extension.extension:location.id</t>
@@ -565,7 +583,7 @@
     <t>Extension.extension:location.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Location|Location)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Location|0.0.1-snapshot-3|Location|4.0.1)
 </t>
   </si>
   <si>
@@ -584,8 +602,8 @@
     <t>For example: Where an OAuth token authorizes, the unique identifier from the OAuth token is placed into the policy element Where a policy engine (e.g. XACML) holds policy logic, the unique policy identifier is placed into the policy element.</t>
   </si>
   <si>
-    <t>This value is used retrospectively to determine the authorization policies. Element `AuditEvent.agent.policy` is part of an existing definition because parent element `AuditEvent.agent` requires a cross-version extension.
-Element `AuditEvent.agent.policy` has is mapped to FHIR R4 element `AuditEvent.agent.policy`, but has no comparisons.</t>
+    <t>This value is used retrospectively to determine the authorization policies. Element `AuditEvent.agent.policy` is mapped to FHIR R4 element `AuditEvent.agent.policy` as `Equivalent`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.
+Note available implied context: `AuditEvent.entity.agent.policy` because `AuditEvent.entity.agent` is defined via a content reference to `AuditEvent.agent`.</t>
   </si>
   <si>
     <t>Extension.extension:policy.id</t>
@@ -618,8 +636,8 @@
     <t>When remote network endpoint is known, another agent representing the remote agent would indicate the remote network endpoint used. Convention is to indicate data flowing from Source to Destination. The convention for Search, given data flows both ways (query parameters vs results), is to have the Source as the initiator of the Search Transaction, and the Destination the responder to the Search transaction.</t>
   </si>
   <si>
-    <t>When a network protocol is used the endpoint is associated with the agent most directly using the endpoint. This is usually the software agent that has implemented the application level protocol.  Preference is to define network in terms of a Reference(Endpoint), or URI; use string only when address or hostname is all that is known. When encoding using string it is best to encode using the formal canonical host name, but if you can't, then you can encode numeric in Literal address form using square brackets '[]' as a v4 string (in dotted notation), or v6 string (in colon notation). Element `AuditEvent.agent.network[x]` is part of an existing definition because parent element `AuditEvent.agent` requires a cross-version extension.
-Element `AuditEvent.agent.network[x]` has is mapped to FHIR R4 element `AuditEvent.agent.network`, but has no comparisons.</t>
+    <t>When a network protocol is used the endpoint is associated with the agent most directly using the endpoint. This is usually the software agent that has implemented the application level protocol.  Preference is to define network in terms of a Reference(Endpoint), or URI; use string only when address or hostname is all that is known. When encoding using string it is best to encode using the formal canonical host name, but if you can't, then you can encode numeric in Literal address form using square brackets '[]' as a v4 string (in dotted notation), or v6 string (in colon notation). Element `AuditEvent.agent.network[x]` is mapped to FHIR R4 element `AuditEvent.agent.network` as `Equivalent`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.
+Note available implied context: `AuditEvent.entity.agent.network` because `AuditEvent.entity.agent` is defined via a content reference to `AuditEvent.agent`.</t>
   </si>
   <si>
     <t>Extension.extension:network.id</t>
@@ -637,7 +655,7 @@
     <t>Extension.extension:network.value[x]</t>
   </si>
   <si>
-    <t>Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Endpoint|Endpoint)
+    <t>Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Endpoint|0.0.1-snapshot-3|Endpoint|4.0.1)
 uristring</t>
   </si>
   <si>
@@ -656,8 +674,8 @@
     <t>Use AuditEvent.agent.authorization when you know that is specific to the agent, otherwise use AuditEvent.authorization. For example, during a machine-to-machine transfer it might not be obvious to the audit system who caused the event, but it does know why.</t>
   </si>
   <si>
-    <t>Record of any relevant security context, not restricted to purposeOfUse valueSet. May include security compartments, refrain, obligation, or other security tags. Element `AuditEvent.agent.authorization` is part of an existing definition because parent element `AuditEvent.agent` requires a cross-version extension.
-Element `AuditEvent.agent.authorization` has is mapped to FHIR R4 element `AuditEvent.agent.purposeOfUse`, but has no comparisons.</t>
+    <t>Record of any relevant security context, not restricted to purposeOfUse valueSet. May include security compartments, refrain, obligation, or other security tags. Element `AuditEvent.agent.authorization` is mapped to FHIR R4 element `AuditEvent.agent.purposeOfUse` as `Equivalent`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.
+Note available implied context: `AuditEvent.entity.agent.purposeOfUse` because `AuditEvent.entity.agent` is defined via a content reference to `AuditEvent.agent`.</t>
   </si>
   <si>
     <t>Extension.extension:authorization.id</t>
@@ -673,6 +691,12 @@
   </si>
   <si>
     <t>Extension.extension:authorization.value[x]</t>
+  </si>
+  <si>
+    <t>The reason the activity took place.</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/ValueSet/v3-PurposeOfUse|2014-03-26</t>
   </si>
   <si>
     <t>base64Binary
@@ -1032,8 +1056,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="52.58984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="54.9921875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -1955,13 +1979,13 @@
         <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>77</v>
@@ -1979,7 +2003,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>84</v>
@@ -1991,7 +2015,7 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>122</v>
@@ -1999,13 +2023,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -2030,16 +2054,16 @@
         <v>94</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -2108,7 +2132,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>107</v>
@@ -2211,7 +2235,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>109</v>
@@ -2316,7 +2340,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>115</v>
@@ -2359,7 +2383,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2421,7 +2445,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>124</v>
@@ -2450,13 +2474,13 @@
         <v>125</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2482,13 +2506,13 @@
         <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>77</v>
@@ -2506,7 +2530,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>84</v>
@@ -2518,7 +2542,7 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>122</v>
@@ -2526,13 +2550,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2557,16 +2581,16 @@
         <v>94</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2635,7 +2659,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>107</v>
@@ -2738,7 +2762,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>109</v>
@@ -2843,7 +2867,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>115</v>
@@ -2886,7 +2910,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2948,7 +2972,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>124</v>
@@ -2974,16 +2998,16 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3033,7 +3057,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>84</v>
@@ -3045,7 +3069,7 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>122</v>
@@ -3053,13 +3077,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -3084,16 +3108,16 @@
         <v>94</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3162,7 +3186,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>107</v>
@@ -3265,7 +3289,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>109</v>
@@ -3370,7 +3394,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>115</v>
@@ -3413,7 +3437,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3475,7 +3499,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>124</v>
@@ -3501,16 +3525,16 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -3560,7 +3584,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>84</v>
@@ -3572,7 +3596,7 @@
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>122</v>
@@ -3580,13 +3604,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -3611,14 +3635,14 @@
         <v>94</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -3687,7 +3711,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>107</v>
@@ -3790,7 +3814,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>109</v>
@@ -3895,7 +3919,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>115</v>
@@ -3938,7 +3962,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -4000,7 +4024,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>124</v>
@@ -4026,13 +4050,13 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4083,7 +4107,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>84</v>
@@ -4095,7 +4119,7 @@
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>122</v>
@@ -4103,13 +4127,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -4134,16 +4158,16 @@
         <v>94</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4212,7 +4236,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>107</v>
@@ -4315,7 +4339,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>109</v>
@@ -4420,7 +4444,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>115</v>
@@ -4463,7 +4487,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>77</v>
@@ -4525,7 +4549,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>124</v>
@@ -4554,13 +4578,13 @@
         <v>116</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -4610,7 +4634,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>84</v>
@@ -4622,7 +4646,7 @@
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>122</v>
@@ -4630,13 +4654,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -4661,16 +4685,16 @@
         <v>94</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -4739,7 +4763,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>107</v>
@@ -4842,7 +4866,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>109</v>
@@ -4947,7 +4971,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>115</v>
@@ -4990,7 +5014,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -5052,7 +5076,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>124</v>
@@ -5078,16 +5102,16 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -5137,7 +5161,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>84</v>
@@ -5149,7 +5173,7 @@
         <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>122</v>
@@ -5157,13 +5181,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>77</v>
@@ -5188,16 +5212,16 @@
         <v>94</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -5266,7 +5290,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>107</v>
@@ -5369,7 +5393,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>109</v>
@@ -5474,7 +5498,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>115</v>
@@ -5517,7 +5541,7 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>77</v>
@@ -5579,7 +5603,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>124</v>
@@ -5608,13 +5632,13 @@
         <v>125</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -5640,13 +5664,13 @@
         <v>77</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>77</v>
+        <v>214</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>77</v>
+        <v>215</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>77</v>
@@ -5664,7 +5688,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>84</v>
@@ -5676,7 +5700,7 @@
         <v>77</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>122</v>
@@ -5789,10 +5813,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -5815,13 +5839,13 @@
         <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -5872,7 +5896,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>84</v>
@@ -5884,7 +5908,7 @@
         <v>77</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>122</v>
